--- a/Resource/excel/clothes.xlsx
+++ b/Resource/excel/clothes.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -117,34 +117,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>桃花岛套装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙少套装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鹏套装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>太上服饰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>太上服饰厉害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨光酒量不行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贼帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"money":{"money":"10004"}}]</t>
   </si>
   <si>
@@ -152,69 +124,81 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>北冥套装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北冥神功初成服饰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清风望月套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清风望月盟主服饰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"money":{"money":"10001"}}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>龙少酒量不行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"money":{"money":"10002"}}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杨四龙套装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"money":{"money":"10003"}}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>桃花岛弟子平时穿着服饰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Art/vol2Image/TempTex/Frames/ST_tticon_icon_zb_sy.ST_tticon_icon_zb_sy</t>
-  </si>
-  <si>
-    <t>/Game/Art/vol2Image/TempTex/Frames/ST_tticon_icon_zb_mz.ST_tticon_icon_zb_mz</t>
-  </si>
-  <si>
-    <t>/Game/Art/vol2Image/TempTex/Frames/ST_tticon_icon_zb_kz.ST_tticon_icon_zb_kz</t>
-  </si>
-  <si>
-    <t>[1|2]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1|2]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[3|4]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[1|2]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>大漠儿郎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠客服饰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Art/Item/Item/Frames/SG_icon_fz_R001wc.SG_icon_fz_R001wc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1|2|5|6|7]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道教祖师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Art/Item/Item/Frames/SG_icon_fz_R004wc.SG_icon_fz_R004wc</t>
+  </si>
+  <si>
+    <t>白蝶翩跹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠女服饰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Art/Item/Item/Frames/SG_icon_fz_R002wc.SG_icon_fz_R002wc</t>
+  </si>
+  <si>
+    <t>绛衣胜火</t>
+  </si>
+  <si>
+    <t>/Game/Art/Item/Item/Frames/SG_icon_fz_R00wc.SG_icon_fz_R00wc</t>
+  </si>
+  <si>
+    <t>丐帮之首</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Art/Item/Item/Frames/SG_icon_fz_gaibang.SG_icon_fz_gaibang</t>
+  </si>
+  <si>
+    <t>塞外独狼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Art/Item/Item/Frames/SG_icon_fz_006.SG_icon_fz_006</t>
+  </si>
+  <si>
+    <t>我佛慈悲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Art/Item/Item/Frames/SG_icon_fz_qigai.SG_icon_fz_qigai</t>
   </si>
 </sst>
 </file>
@@ -653,7 +637,7 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,22 +713,22 @@
         <v>20001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -752,22 +736,22 @@
         <v>20002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -775,22 +759,22 @@
         <v>20003</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -799,23 +783,23 @@
         <v>20004</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -849,23 +833,23 @@
         <v>20005</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -899,23 +883,23 @@
         <v>20006</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -949,23 +933,23 @@
         <v>20007</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
